--- a/reports/raw-views/assets/tables/meso_agreements_per_cat.xlsx
+++ b/reports/raw-views/assets/tables/meso_agreements_per_cat.xlsx
@@ -468,7 +468,7 @@
         <v>6.756756756756757</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>7.432432432432432</v>
       </c>
       <c r="D3" t="n">
-        <v>1.19047619047619</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0.6756756756756757</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>54.05405405405406</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>3.378378378378379</v>
       </c>
       <c r="D8" t="n">
-        <v>1.19047619047619</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -591,17 +591,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>linguagem e representação</t>
+          <t>maternidade</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.16216216216216</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="C9" t="n">
-        <v>36.48648648648648</v>
+        <v>2.027027027027027</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5952380952380952</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -610,134 +610,134 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>sociedade e consumo</t>
+          <t>linguagem e representação</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.81081081081081</v>
+        <v>12.16216216216216</v>
       </c>
       <c r="C10" t="n">
-        <v>20.27027027027027</v>
+        <v>36.48648648648648</v>
       </c>
       <c r="D10" t="n">
-        <v>1.19047619047619</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5988023952095809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>sonho e fantasia</t>
+          <t>questão agrária e territorial</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.027027027027027</v>
+        <v>4.72972972972973</v>
       </c>
       <c r="C11" t="n">
-        <v>2.027027027027027</v>
+        <v>11.48648648648649</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5952380952380952</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5988023952095809</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>pessoas com deficiência</t>
+          <t>sociedade e consumo</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.351351351351351</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6756756756756757</v>
+        <v>20.27027027027027</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5952380952380952</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5988023952095809</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>questão agrária e territorial</t>
+          <t>pessoas com deficiência</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.72972972972973</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="C13" t="n">
-        <v>11.48648648648649</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="D13" t="n">
-        <v>4.166666666666666</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5988023952095809</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>amizade</t>
+          <t>violência</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6756756756756757</v>
+        <v>4.054054054054054</v>
       </c>
       <c r="C14" t="n">
-        <v>1.351351351351351</v>
+        <v>12.83783783783784</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5988023952095809</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>família</t>
+          <t>sonho e fantasia</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.405405405405405</v>
+        <v>2.027027027027027</v>
       </c>
       <c r="C15" t="n">
-        <v>12.16216216216216</v>
+        <v>2.027027027027027</v>
       </c>
       <c r="D15" t="n">
-        <v>5.357142857142857</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5988023952095809</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>maternidade</t>
+          <t>moradia e habitação</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.351351351351351</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C16" t="n">
-        <v>2.027027027027027</v>
+        <v>3.378378378378379</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5988023952095809</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -753,67 +753,67 @@
         <v>5.405405405405405</v>
       </c>
       <c r="D17" t="n">
-        <v>2.976190476190476</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5988023952095809</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>violência</t>
+          <t>amizade</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.054054054054054</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C18" t="n">
-        <v>12.83783783783784</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="D18" t="n">
-        <v>1.785714285714286</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.197604790419162</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>moradia e habitação</t>
+          <t>família</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6756756756756757</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="C19" t="n">
-        <v>3.378378378378379</v>
+        <v>12.16216216216216</v>
       </c>
       <c r="D19" t="n">
-        <v>4.166666666666666</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>1.197604790419162</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>sonoridade e paisagem sonora</t>
+          <t>distopia, ficção científica e futuros imaginados</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.783783783783784</v>
+        <v>11.48648648648649</v>
       </c>
       <c r="C20" t="n">
-        <v>13.51351351351351</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="D20" t="n">
-        <v>2.380952380952381</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>1.197604790419162</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -829,10 +829,10 @@
         <v>6.081081081081082</v>
       </c>
       <c r="D21" t="n">
-        <v>1.19047619047619</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>1.796407185628742</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -848,86 +848,86 @@
         <v>10.81081081081081</v>
       </c>
       <c r="D22" t="n">
-        <v>3.571428571428571</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>1.796407185628742</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>mobilidade</t>
+          <t>tecnologia, inovação e sociedade</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.72972972972973</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="C23" t="n">
-        <v>10.13513513513514</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="D23" t="n">
-        <v>4.761904761904762</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>1.796407185628742</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>distopia, ficção científica e futuros imaginados</t>
+          <t>sonoridade e paisagem sonora</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.48648648648649</v>
+        <v>8.783783783783784</v>
       </c>
       <c r="C24" t="n">
-        <v>10.81081081081081</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="D24" t="n">
-        <v>1.19047619047619</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>1.796407185628742</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>tecnologia, inovação e sociedade</t>
+          <t>mobilidade</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.756756756756757</v>
+        <v>4.72972972972973</v>
       </c>
       <c r="C25" t="n">
-        <v>10.81081081081081</v>
+        <v>10.13513513513514</v>
       </c>
       <c r="D25" t="n">
-        <v>1.785714285714286</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="E25" t="n">
-        <v>1.796407185628742</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>saudade, luto ou perda</t>
+          <t>gênero e sexualidade</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.432432432432432</v>
+        <v>12.16216216216216</v>
       </c>
       <c r="C26" t="n">
-        <v>13.51351351351351</v>
+        <v>17.56756756756757</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5952380952380952</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>2.994011976047904</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="27">
@@ -946,140 +946,140 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.994011976047904</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>dinâmica urbana</t>
+          <t>saudade, luto ou perda</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.32432432432433</v>
+        <v>7.432432432432432</v>
       </c>
       <c r="C28" t="n">
-        <v>42.56756756756756</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="D28" t="n">
-        <v>8.928571428571429</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>3.592814371257485</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>solidão</t>
+          <t>religião, espiritualidade e cosmologias</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.351351351351351</v>
+        <v>4.72972972972973</v>
       </c>
       <c r="C29" t="n">
-        <v>4.054054054054054</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="D29" t="n">
-        <v>1.785714285714286</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>3.592814371257485</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>alimentação e tratamentos tradicionais</t>
+          <t>trabalho e ofício</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.72972972972973</v>
+        <v>10.13513513513514</v>
       </c>
       <c r="C30" t="n">
-        <v>4.72972972972973</v>
+        <v>20.27027027027027</v>
       </c>
       <c r="D30" t="n">
-        <v>1.785714285714286</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="E30" t="n">
-        <v>3.592814371257485</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>religião, espiritualidade e cosmologias</t>
+          <t>política</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.72972972972973</v>
+        <v>12.16216216216216</v>
       </c>
       <c r="C31" t="n">
-        <v>10.81081081081081</v>
+        <v>31.08108108108108</v>
       </c>
       <c r="D31" t="n">
-        <v>2.976190476190476</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>4.191616766467066</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>trabalho e ofício</t>
+          <t>solidão</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10.13513513513514</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="C32" t="n">
-        <v>20.27027027027027</v>
+        <v>4.054054054054054</v>
       </c>
       <c r="D32" t="n">
-        <v>5.357142857142857</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>4.191616766467066</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>política</t>
+          <t>biografia</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12.16216216216216</v>
+        <v>2.027027027027027</v>
       </c>
       <c r="C33" t="n">
-        <v>31.08108108108108</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="D33" t="n">
-        <v>6.547619047619048</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>4.191616766467066</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>crises e desastres ambientais e sociais</t>
+          <t>alimentação e tratamentos tradicionais</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.054054054054054</v>
+        <v>4.72972972972973</v>
       </c>
       <c r="C34" t="n">
-        <v>6.756756756756757</v>
+        <v>4.72972972972973</v>
       </c>
       <c r="D34" t="n">
-        <v>2.976190476190476</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>4.191616766467066</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1095,200 +1095,200 @@
         <v>12.83783783783784</v>
       </c>
       <c r="D35" t="n">
-        <v>1.19047619047619</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>4.191616766467066</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>cultural</t>
+          <t>dinâmica urbana</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.45945945945946</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="C36" t="n">
-        <v>56.75675675675676</v>
+        <v>42.56756756756756</v>
       </c>
       <c r="D36" t="n">
-        <v>7.142857142857142</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="E36" t="n">
-        <v>4.191616766467066</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>vida cotidiana</t>
+          <t>estruturas sociais e econômicas</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.405405405405405</v>
+        <v>26.35135135135135</v>
       </c>
       <c r="C37" t="n">
-        <v>14.86486486486486</v>
+        <v>52.70270270270269</v>
       </c>
       <c r="D37" t="n">
-        <v>1.785714285714286</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E37" t="n">
-        <v>4.790419161676647</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>biografia</t>
+          <t>crises e desastres ambientais e sociais</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.027027027027027</v>
+        <v>4.054054054054054</v>
       </c>
       <c r="C38" t="n">
         <v>6.756756756756757</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>4.790419161676647</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>gênero e sexualidade</t>
+          <t>cultural</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12.16216216216216</v>
+        <v>34.45945945945946</v>
       </c>
       <c r="C39" t="n">
-        <v>17.56756756756757</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="D39" t="n">
-        <v>4.166666666666666</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>4.790419161676647</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>memória e patrimônio</t>
+          <t>vida cotidiana</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.89189189189189</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="C40" t="n">
-        <v>39.18918918918919</v>
+        <v>14.86486486486486</v>
       </c>
       <c r="D40" t="n">
-        <v>5.357142857142857</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>4.790419161676647</v>
+        <v>5.333333333333334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>resistência e luta</t>
+          <t>memória e patrimônio</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.756756756756757</v>
+        <v>16.89189189189189</v>
       </c>
       <c r="C41" t="n">
-        <v>12.83783783783784</v>
+        <v>39.18918918918919</v>
       </c>
       <c r="D41" t="n">
-        <v>4.166666666666666</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>5.389221556886228</v>
+        <v>5.333333333333334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>vida afetiva</t>
+          <t>educação e socialização</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.32432432432432</v>
+        <v>14.18918918918919</v>
       </c>
       <c r="C42" t="n">
-        <v>69.5945945945946</v>
+        <v>33.10810810810811</v>
       </c>
       <c r="D42" t="n">
-        <v>10.11904761904762</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E42" t="n">
-        <v>5.389221556886228</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>estruturas sociais e econômicas</t>
+          <t>resistência e luta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.35135135135135</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="C43" t="n">
-        <v>52.70270270270269</v>
+        <v>12.83783783783784</v>
       </c>
       <c r="D43" t="n">
-        <v>4.761904761904762</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>5.389221556886228</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>pandemia</t>
+          <t>vida afetiva</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.21621621621622</v>
+        <v>49.32432432432432</v>
       </c>
       <c r="C44" t="n">
-        <v>20.94594594594595</v>
+        <v>69.5945945945946</v>
       </c>
       <c r="D44" t="n">
-        <v>13.0952380952381</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>6.58682634730539</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>educação e socialização</t>
+          <t>pandemia</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14.18918918918919</v>
+        <v>16.21621621621622</v>
       </c>
       <c r="C45" t="n">
-        <v>33.10810810810811</v>
+        <v>20.94594594594595</v>
       </c>
       <c r="D45" t="n">
-        <v>7.738095238095238</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>7.18562874251497</v>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="46">
@@ -1304,10 +1304,10 @@
         <v>29.72972972972973</v>
       </c>
       <c r="D46" t="n">
-        <v>8.928571428571429</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>7.18562874251497</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1323,48 +1323,48 @@
         <v>6.081081081081082</v>
       </c>
       <c r="D47" t="n">
-        <v>7.142857142857142</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E47" t="n">
-        <v>7.784431137724551</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>povos originários e comunidades tradicionais</t>
+          <t>reflexão</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>13.51351351351351</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="C48" t="n">
-        <v>16.21621621621622</v>
+        <v>10.13513513513514</v>
       </c>
       <c r="D48" t="n">
-        <v>3.571428571428571</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>7.784431137724551</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>reflexão</t>
+          <t>povos originários e comunidades tradicionais</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.702702702702703</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="C49" t="n">
-        <v>10.13513513513514</v>
+        <v>16.21621621621622</v>
       </c>
       <c r="D49" t="n">
-        <v>2.976190476190476</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E49" t="n">
-        <v>8.982035928143713</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1380,10 +1380,10 @@
         <v>64.86486486486487</v>
       </c>
       <c r="D50" t="n">
-        <v>11.30952380952381</v>
+        <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>10.17964071856287</v>
+        <v>11.33333333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1399,10 +1399,10 @@
         <v>22.97297297297298</v>
       </c>
       <c r="D51" t="n">
-        <v>10.11904761904762</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E51" t="n">
-        <v>10.77844311377246</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -1418,10 +1418,10 @@
         <v>6.756756756756757</v>
       </c>
       <c r="D52" t="n">
-        <v>2.976190476190476</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E52" t="n">
-        <v>13.77245508982036</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
   </sheetData>
